--- a/prueba_tipo_cambio_brasil.xlsx
+++ b/prueba_tipo_cambio_brasil.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5863"/>
+  <dimension ref="A1:C5868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65036,6 +65036,61 @@
         <v>5.3365</v>
       </c>
     </row>
+    <row r="5864">
+      <c r="A5864" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5864" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="C5864" t="n">
+        <v>5.311500000000001</v>
+      </c>
+    </row>
+    <row r="5865">
+      <c r="A5865" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5865" s="2" t="n">
+        <v>46045</v>
+      </c>
+      <c r="C5865" t="n">
+        <v>5.28755</v>
+      </c>
+    </row>
+    <row r="5866">
+      <c r="A5866" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5866" s="2" t="n">
+        <v>46046</v>
+      </c>
+      <c r="C5866" t="n">
+        <v>5.28755</v>
+      </c>
+    </row>
+    <row r="5867">
+      <c r="A5867" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5867" s="2" t="n">
+        <v>46047</v>
+      </c>
+      <c r="C5867" t="n">
+        <v>5.28755</v>
+      </c>
+    </row>
+    <row r="5868">
+      <c r="A5868" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5868" s="2" t="n">
+        <v>46048</v>
+      </c>
+      <c r="C5868" t="n">
+        <v>5.275700000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
